--- a/data/spill data/oil_spills_100_data.xlsx
+++ b/data/spill data/oil_spills_100_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://txst-my.sharepoint.com/personal/oja47_txstate_edu/Documents/Miscellaneous/JP4 INFOR revision/MIP-Python-LAMOSCAD-2025/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanmoydas/Documents/GitHub/MIP-Python-Lamoscad/data/spill data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{0E70E240-FA90-496C-8020-DECFD3D8AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CDFA82C-9B53-EF4D-AD8A-124E9A1BF7B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB673CF0-CDA9-4042-A5B1-FB4D3D8E1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="500" windowWidth="26120" windowHeight="26920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="spills" sheetId="1" r:id="rId1"/>
@@ -690,16 +690,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -710,12 +709,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -725,11 +739,75 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,11 +815,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,10 +847,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,308 +1136,312 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E24"/>
+    <sheetView tabSelected="1" zoomScale="212" zoomScaleNormal="212" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>8500</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
         <v>800</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <f>IF(E2="ISB",IF(C2&lt;=50,145,IF(C2&lt;=100,232,IF(C2&lt;=500,348,IF(C2&lt;=1000,464,IF(C2&lt;=5000,783,IF(C2&lt;=10000,1131,0)))))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4820</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>54</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H66" si="0">IF(E3="ISB",IF(C3&lt;=50,145,IF(C3&lt;=100,232,IF(C3&lt;=500,348,IF(C3&lt;=1000,464,IF(C3&lt;=5000,783,IF(C3&lt;=10000,1131,0)))))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3200</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>6160</v>
       </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>54</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>5190</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4650</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>54</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>8380</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>54</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>3980</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>54</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>710</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>5700</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="8">
         <v>54</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3787,7 +3877,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
